--- a/EXCEL-DUMP-Variables-and-findings-in-the-CSP-CFP-literature.xlsx
+++ b/EXCEL-DUMP-Variables-and-findings-in-the-CSP-CFP-literature.xlsx
@@ -1168,10 +1168,10 @@
   <dimension ref="A1:BF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,8 +1180,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
